--- a/src/test/resources/TestData/Sample.xlsx
+++ b/src/test/resources/TestData/Sample.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raghunath\NewWorkspace7\TestAutomationFramework\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B12D58-DF34-4B68-8E74-05355B586421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Search using Google</t>
+    <t>Search using Google1</t>
   </si>
   <si>
     <t>12</t>
@@ -43,32 +37,38 @@
     <t>https://google.com</t>
   </si>
   <si>
-    <t>hello world</t>
+    <t>ten</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Search using Bing</t>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>Search using Bing1</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>cucumber feature</t>
-  </si>
-  <si>
-    <t>Cucumber BDD</t>
-  </si>
-  <si>
     <t>https://bing.com</t>
+  </si>
+  <si>
+    <t>twelve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +84,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,13 +431,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,17 +690,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,23 +1002,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -444,28 +1060,29 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{BA013828-C8F7-4743-AF04-FC6987259EBC}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://bing.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Sample.xlsx
+++ b/src/test/resources/TestData/Sample.xlsx
@@ -37,13 +37,13 @@
     <t>https://google.com</t>
   </si>
   <si>
-    <t>ten</t>
+    <t>one</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>eleven</t>
+    <t>two</t>
   </si>
   <si>
     <t>Search using Bing1</t>
@@ -55,7 +55,7 @@
     <t>https://bing.com</t>
   </si>
   <si>
-    <t>twelve</t>
+    <t>three</t>
   </si>
 </sst>
 </file>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,7 +94,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,14 +102,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,13 +123,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -154,9 +161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,58 +199,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -244,19 +244,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,25 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,127 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,45 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,7 +447,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +463,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,12 +505,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,130 +552,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
